--- a/TestData/addhome.xlsx
+++ b/TestData/addhome.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nampekumar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgirish\PycharmProjects\MainAssesment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75927943-B0C0-4D82-B24F-B26EB825C15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B4A505-AC80-420C-AF56-6AFB3E6978DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F127FA15-0487-4155-9B54-222312348498}"/>
   </bookViews>
@@ -44,10 +44,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>kgf</t>
+    <t>hero jnhshhhbjhknnknknkknck</t>
   </si>
   <si>
-    <t>hero jnhshhhbjhknnknknkknck</t>
+    <t>Pavan Home</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7284168E-12C0-4B2A-BFE3-52352BDA7E64}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -425,10 +427,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
